--- a/data_craw/quarter/income_statement_quarter/bab.xlsx
+++ b/data_craw/quarter/income_statement_quarter/bab.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,45 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40922000000</v>
+        <v>9381000000</v>
       </c>
       <c r="C4" t="n">
-        <v>25650000000</v>
+        <v>36902000000</v>
       </c>
       <c r="D4" t="n">
-        <v>908000000</v>
+        <v>5168000000</v>
       </c>
       <c r="E4" t="n">
-        <v>34197000000</v>
+        <v>13251000000</v>
       </c>
       <c r="F4" t="n">
-        <v>9381000000</v>
+        <v>4021000000</v>
       </c>
       <c r="G4" t="n">
-        <v>36902000000</v>
+        <v>137812000000</v>
       </c>
       <c r="H4" t="n">
-        <v>5168000000</v>
+        <v>2687000000</v>
       </c>
       <c r="I4" t="n">
-        <v>13251000000</v>
+        <v>53549000000</v>
       </c>
       <c r="J4" t="n">
-        <v>4021000000</v>
+        <v>83313000000</v>
       </c>
       <c r="K4" t="n">
-        <v>137812000000</v>
+        <v>17150000000</v>
       </c>
       <c r="L4" t="n">
-        <v>2687000000</v>
+        <v>9154000000</v>
       </c>
       <c r="M4" t="n">
-        <v>53549000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>83313000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>17150000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9154000000</v>
-      </c>
-      <c r="Q4" t="n">
         <v>11221000000</v>
       </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +620,45 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1143000000</v>
+        <v>92000000</v>
       </c>
       <c r="C5" t="n">
-        <v>1886000000</v>
+        <v>1273000000</v>
       </c>
       <c r="D5" t="n">
-        <v>536000000</v>
+        <v>976000000</v>
       </c>
       <c r="E5" t="n">
-        <v>14537000000</v>
+        <v>6366000000</v>
       </c>
       <c r="F5" t="n">
-        <v>92000000</v>
+        <v>2294000000</v>
       </c>
       <c r="G5" t="n">
-        <v>1273000000</v>
+        <v>69599000000</v>
       </c>
       <c r="H5" t="n">
-        <v>976000000</v>
+        <v>1150000000</v>
       </c>
       <c r="I5" t="n">
-        <v>6366000000</v>
+        <v>36764000000</v>
       </c>
       <c r="J5" t="n">
-        <v>2294000000</v>
+        <v>845000000</v>
       </c>
       <c r="K5" t="n">
-        <v>69599000000</v>
+        <v>20614000000</v>
       </c>
       <c r="L5" t="n">
-        <v>1150000000</v>
+        <v>5329000000</v>
       </c>
       <c r="M5" t="n">
-        <v>36764000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>845000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>20614000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5329000000</v>
-      </c>
-      <c r="Q5" t="n">
         <v>4157000000</v>
       </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,53 +690,45 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>168560000000</v>
+        <v>135518000000</v>
       </c>
       <c r="C7" t="n">
-        <v>234222000000</v>
+        <v>175977000000</v>
       </c>
       <c r="D7" t="n">
-        <v>142837000000</v>
+        <v>183814000000</v>
       </c>
       <c r="E7" t="n">
-        <v>139863000000</v>
+        <v>164535000000</v>
       </c>
       <c r="F7" t="n">
-        <v>135518000000</v>
+        <v>213271000000</v>
       </c>
       <c r="G7" t="n">
-        <v>175977000000</v>
+        <v>164719000000</v>
       </c>
       <c r="H7" t="n">
-        <v>183814000000</v>
+        <v>196616000000</v>
       </c>
       <c r="I7" t="n">
-        <v>164535000000</v>
+        <v>161628000000</v>
       </c>
       <c r="J7" t="n">
-        <v>213271000000</v>
+        <v>228147000000</v>
       </c>
       <c r="K7" t="n">
-        <v>164719000000</v>
+        <v>286579000000</v>
       </c>
       <c r="L7" t="n">
-        <v>196616000000</v>
+        <v>269083000000</v>
       </c>
       <c r="M7" t="n">
-        <v>161628000000</v>
-      </c>
-      <c r="N7" t="n">
-        <v>228147000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>286579000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>269083000000</v>
-      </c>
-      <c r="Q7" t="n">
         <v>111218000000</v>
       </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
